--- a/BalanceSheet/NVCR_bal.xlsx
+++ b/BalanceSheet/NVCR_bal.xlsx
@@ -396,19 +396,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-1296000.0</v>
+        <v>28000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-489000.0</v>
+        <v>27000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-55000.0</v>
+        <v>26000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-3538000.0</v>
+        <v>26000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1147000.0</v>
+        <v>23000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>23701000.0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>-2626000.0</v>
+        <v>53000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>17496000.0</v>
+        <v>54000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>9908000.0</v>
+        <v>42000000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>405000.0</v>
+        <v>39000000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>-2339000.0</v>
+        <v>40000000.0</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>36925000.0</v>
@@ -4136,7 +4136,7 @@
         <v>-169000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>-159000000.0</v>
+        <v>-173761000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>-165349000.0</v>
@@ -4233,7 +4233,7 @@
         <v>163000000.0</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>169000000.0</v>
+        <v>154424000.0</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>149384000.0</v>
